--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13125" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12810" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="indexing" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Genia</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>chisquare</t>
+  </si>
+  <si>
+    <t>glossex</t>
+  </si>
+  <si>
+    <t>rake</t>
+  </si>
+  <si>
+    <t>ridf</t>
+  </si>
+  <si>
+    <t>termex</t>
+  </si>
+  <si>
+    <t>tfidf</t>
+  </si>
+  <si>
+    <t>ttf</t>
+  </si>
+  <si>
+    <t>weirdness</t>
   </si>
 </sst>
 </file>
@@ -454,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +514,77 @@
       </c>
       <c r="C3" s="1">
         <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.72</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.14027777777777778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Genia</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>weirdness</t>
+  </si>
+  <si>
+    <t>cvalue</t>
+  </si>
+  <si>
+    <t>nc-value</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +522,17 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.7083333333333337E-2</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
@@ -585,6 +602,23 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2.76</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Genia</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>nc-value</t>
+  </si>
+  <si>
+    <t>ACLrd</t>
+  </si>
+  <si>
+    <t>304,205 cterms</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,41 +444,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" s="1">
         <v>7.6388888888888895E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>5.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
@@ -481,15 +506,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +527,17 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -510,8 +547,17 @@
       <c r="C2" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1.6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.5694444444444447E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -521,8 +567,11 @@
       <c r="C3" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -532,8 +581,11 @@
       <c r="C4" s="1">
         <v>7.7083333333333337E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -543,8 +595,11 @@
       <c r="C5" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -554,8 +609,11 @@
       <c r="C6" s="1">
         <v>0.14027777777777778</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -565,8 +623,11 @@
       <c r="C7" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -576,8 +637,11 @@
       <c r="C8" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -587,8 +651,11 @@
       <c r="C9" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -598,8 +665,11 @@
       <c r="C10" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -609,8 +679,11 @@
       <c r="C11" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -619,6 +692,9 @@
       </c>
       <c r="C12" s="1">
         <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +583,12 @@
       </c>
       <c r="F4" t="s">
         <v>15</v>
+      </c>
+      <c r="G4">
+        <v>5.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.66180555555555554</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -75,7 +75,7 @@
     <t>ACLrd</t>
   </si>
   <si>
-    <t>304,205 cterms</t>
+    <t>cutoff=2</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -517,7 +517,7 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,11 +533,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1">
+        <v>148039</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -551,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="1">
-        <v>2.5694444444444447E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.2638888888888891E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -570,8 +573,14 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.5131944444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -585,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>5.9</v>
+        <v>5.98</v>
       </c>
       <c r="H4" s="1">
-        <v>0.66180555555555554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -604,8 +613,14 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2.72</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.1944444444444445E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -619,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -633,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -647,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -661,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -675,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -689,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,12 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
+      <c r="G7">
+        <v>1.67</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -661,6 +667,12 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+      <c r="G8">
+        <v>6.3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.9583333333333334E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -675,6 +687,12 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9">
+        <v>1.45</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -689,6 +707,12 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
+      <c r="G10">
+        <v>1.45</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.1527777777777781E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -703,6 +727,12 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
+      <c r="G11">
+        <v>2.44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -716,6 +746,12 @@
       </c>
       <c r="F12" t="s">
         <v>16</v>
+      </c>
+      <c r="G12">
+        <v>16.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.4756944444444444</v>
       </c>
     </row>
   </sheetData>
